--- a/Code/Results/Cases/Case_3_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.22944670555923</v>
+        <v>9.765230857032034</v>
       </c>
       <c r="C2">
-        <v>7.23983164545451</v>
+        <v>5.18551004227746</v>
       </c>
       <c r="D2">
-        <v>10.34787328810852</v>
+        <v>11.39196860958976</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.34481896984225</v>
+        <v>30.18605307898979</v>
       </c>
       <c r="G2">
-        <v>20.83710272351931</v>
+        <v>28.59831812537493</v>
       </c>
       <c r="H2">
-        <v>8.556635780438416</v>
+        <v>14.32408158459642</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.303359000925346</v>
+        <v>11.32573392360043</v>
       </c>
       <c r="K2">
-        <v>11.70612518203958</v>
+        <v>9.029596513322192</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.87018882343132</v>
+        <v>18.15294547877399</v>
       </c>
       <c r="O2">
-        <v>13.77758783226371</v>
+        <v>21.76853910501546</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.37134630502071</v>
+        <v>9.470098101814735</v>
       </c>
       <c r="C3">
-        <v>6.918244581040522</v>
+        <v>5.037162195676551</v>
       </c>
       <c r="D3">
-        <v>9.803970741795244</v>
+        <v>11.2898146937132</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.93662650635622</v>
+        <v>30.21654883037102</v>
       </c>
       <c r="G3">
-        <v>20.54754941232783</v>
+        <v>28.66472995889168</v>
       </c>
       <c r="H3">
-        <v>8.61418600603019</v>
+        <v>14.36822844670816</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.026640219891727</v>
+        <v>11.30554609477024</v>
       </c>
       <c r="K3">
-        <v>11.04183692729837</v>
+        <v>8.823674048157752</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.03899126583798</v>
+        <v>18.20585639177958</v>
       </c>
       <c r="O3">
-        <v>13.79109229001053</v>
+        <v>21.83913064611015</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.81342400107329</v>
+        <v>9.285545922592584</v>
       </c>
       <c r="C4">
-        <v>6.712704715220527</v>
+        <v>4.943186811864701</v>
       </c>
       <c r="D4">
-        <v>9.458939150150615</v>
+        <v>11.22901021329722</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.70019374352799</v>
+        <v>30.24251154350371</v>
       </c>
       <c r="G4">
-        <v>20.39167475484491</v>
+        <v>28.71403478407855</v>
       </c>
       <c r="H4">
-        <v>8.654487781920642</v>
+        <v>14.39742602637774</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.856970829586937</v>
+        <v>11.29538569247988</v>
       </c>
       <c r="K4">
-        <v>10.61250469099962</v>
+        <v>8.695884984549183</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.14534664089414</v>
+        <v>18.23994455269195</v>
       </c>
       <c r="O4">
-        <v>13.81073028474457</v>
+        <v>21.88676798997393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.57823986672109</v>
+        <v>9.209616781873354</v>
       </c>
       <c r="C5">
-        <v>6.62698444595976</v>
+        <v>4.904203620384155</v>
       </c>
       <c r="D5">
-        <v>9.315719757020071</v>
+        <v>11.20473905843179</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.60745685158214</v>
+        <v>30.25490982373212</v>
       </c>
       <c r="G5">
-        <v>20.33356569558164</v>
+        <v>28.73626367743816</v>
       </c>
       <c r="H5">
-        <v>8.67211912405566</v>
+        <v>14.4098502755219</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.78798644276177</v>
+        <v>11.2918103456803</v>
       </c>
       <c r="K5">
-        <v>10.43221031019993</v>
+        <v>8.64354229096744</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.1893803812867</v>
+        <v>18.25423933352483</v>
       </c>
       <c r="O5">
-        <v>13.82147945677719</v>
+        <v>21.90725874315453</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.53871456162456</v>
+        <v>9.19696874477135</v>
       </c>
       <c r="C6">
-        <v>6.612634543252856</v>
+        <v>4.897690174316355</v>
       </c>
       <c r="D6">
-        <v>9.2917857950867</v>
+        <v>11.20074018774566</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.59227702524455</v>
+        <v>30.25707829843605</v>
       </c>
       <c r="G6">
-        <v>20.32424022637856</v>
+        <v>28.74008358740473</v>
       </c>
       <c r="H6">
-        <v>8.675118602672528</v>
+        <v>14.41194508589565</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.776544104692951</v>
+        <v>11.29125087408824</v>
       </c>
       <c r="K6">
-        <v>10.40195218271498</v>
+        <v>8.634836833086347</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.19673434501054</v>
+        <v>18.25663737808246</v>
       </c>
       <c r="O6">
-        <v>13.82342711100507</v>
+        <v>21.91072628756793</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.81028393629353</v>
+        <v>9.284524680738611</v>
       </c>
       <c r="C7">
-        <v>6.711556498728813</v>
+        <v>4.942663800457649</v>
       </c>
       <c r="D7">
-        <v>9.457017991426937</v>
+        <v>11.22868079852859</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.69892839423267</v>
+        <v>30.2426713919836</v>
       </c>
       <c r="G7">
-        <v>20.39086931318529</v>
+        <v>28.71432592959226</v>
       </c>
       <c r="H7">
-        <v>8.654720725463267</v>
+        <v>14.39759145421198</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.856039711836749</v>
+        <v>11.29533518228872</v>
       </c>
       <c r="K7">
-        <v>10.61009470293879</v>
+        <v>8.695180058563343</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.14593767391068</v>
+        <v>18.2401357015928</v>
       </c>
       <c r="O7">
-        <v>13.81086427224342</v>
+        <v>21.88703997218229</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.94000362654389</v>
+        <v>9.664229867538586</v>
       </c>
       <c r="C8">
-        <v>7.130665721877834</v>
+        <v>5.134981800185541</v>
       </c>
       <c r="D8">
-        <v>10.1627256040512</v>
+        <v>11.35636290415209</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.20115537695542</v>
+        <v>30.19506484424032</v>
       </c>
       <c r="G8">
-        <v>20.73266422897558</v>
+        <v>28.61944267916476</v>
       </c>
       <c r="H8">
-        <v>8.575423495294867</v>
+        <v>14.33886947457652</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.207953784541134</v>
+        <v>11.31831127037747</v>
       </c>
       <c r="K8">
-        <v>11.48156120068364</v>
+        <v>8.95891748320577</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.92783652795734</v>
+        <v>18.17085760101472</v>
       </c>
       <c r="O8">
-        <v>13.77982531178685</v>
+        <v>21.79198694917003</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.9102003223628</v>
+        <v>10.3776177094225</v>
       </c>
       <c r="C9">
-        <v>7.885815283967294</v>
+        <v>5.487638895995342</v>
       </c>
       <c r="D9">
-        <v>11.45283450200975</v>
+        <v>11.62083924331764</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.29636999183961</v>
+        <v>30.15919188740271</v>
       </c>
       <c r="G9">
-        <v>21.58008383348583</v>
+        <v>28.50134463619338</v>
       </c>
       <c r="H9">
-        <v>8.461231700001823</v>
+        <v>14.24030240013159</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.896005496156555</v>
+        <v>11.38094648151009</v>
       </c>
       <c r="K9">
-        <v>13.0185402869646</v>
+        <v>9.462361511473166</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.52110082202707</v>
+        <v>18.04765388711198</v>
       </c>
       <c r="O9">
-        <v>13.81370990636048</v>
+        <v>21.63972672593855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.21012399238992</v>
+        <v>10.87701351105921</v>
       </c>
       <c r="C10">
-        <v>8.397206935812749</v>
+        <v>5.729954998153561</v>
       </c>
       <c r="D10">
-        <v>12.33738099747421</v>
+        <v>11.82217928560256</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.16470740628872</v>
+        <v>30.16790411191591</v>
       </c>
       <c r="G10">
-        <v>22.31372190378691</v>
+        <v>28.45637651045088</v>
       </c>
       <c r="H10">
-        <v>8.405275396239453</v>
+        <v>14.17798790622829</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.395593749780049</v>
+        <v>11.43744693494919</v>
       </c>
       <c r="K10">
-        <v>14.04156328590965</v>
+        <v>9.820071226107281</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.23427175311663</v>
+        <v>17.96477740118998</v>
       </c>
       <c r="O10">
-        <v>13.90273053523428</v>
+        <v>21.54876407339742</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76991919634772</v>
+        <v>11.09779965651921</v>
       </c>
       <c r="C11">
-        <v>8.620021205708138</v>
+        <v>5.836214020817639</v>
       </c>
       <c r="D11">
-        <v>12.725185339502</v>
+        <v>11.91495858041497</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.57272074989837</v>
+        <v>30.17947006259054</v>
       </c>
       <c r="G11">
-        <v>22.67185373339139</v>
+        <v>28.44505430868577</v>
       </c>
       <c r="H11">
-        <v>8.386521264710854</v>
+        <v>14.15183137466589</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.62077620152535</v>
+        <v>11.46536749270732</v>
       </c>
       <c r="K11">
-        <v>14.48382828406118</v>
+        <v>9.97943502425394</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.10621835479529</v>
+        <v>17.92871897134518</v>
       </c>
       <c r="O11">
-        <v>13.95847334724624</v>
+        <v>21.5119400222062</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.97740365688093</v>
+        <v>11.18041180792491</v>
       </c>
       <c r="C12">
-        <v>8.702958794325632</v>
+        <v>5.875856323802648</v>
       </c>
       <c r="D12">
-        <v>12.86989220790901</v>
+        <v>11.95023361922685</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.72902266688745</v>
+        <v>30.18494044132041</v>
       </c>
       <c r="G12">
-        <v>22.81097717224586</v>
+        <v>28.44208352493991</v>
       </c>
       <c r="H12">
-        <v>8.380438376214745</v>
+        <v>14.14224149591584</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.705692599921829</v>
+        <v>11.47625354739341</v>
       </c>
       <c r="K12">
-        <v>14.64798214410294</v>
+        <v>10.03924386626023</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.0580627238147</v>
+        <v>17.91529967269123</v>
       </c>
       <c r="O12">
-        <v>13.98187861901573</v>
+        <v>21.49865218271109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.93291756887467</v>
+        <v>11.16266516664246</v>
       </c>
       <c r="C13">
-        <v>8.685160960296773</v>
+        <v>5.867345500834233</v>
       </c>
       <c r="D13">
-        <v>12.83882307607556</v>
+        <v>11.94263068152702</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.69528150303465</v>
+        <v>30.18371384452564</v>
       </c>
       <c r="G13">
-        <v>22.78085862281154</v>
+        <v>28.44266473602142</v>
       </c>
       <c r="H13">
-        <v>8.381702214735071</v>
+        <v>14.14429283641077</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.687420923595992</v>
+        <v>11.47389521077466</v>
       </c>
       <c r="K13">
-        <v>14.61277634008136</v>
+        <v>10.02638776457135</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.06841920103041</v>
+        <v>17.91817931099905</v>
       </c>
       <c r="O13">
-        <v>13.97673410535601</v>
+        <v>21.50148472863576</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.78707898176519</v>
+        <v>11.10461654994769</v>
       </c>
       <c r="C14">
-        <v>8.626873459101205</v>
+        <v>5.839487486624163</v>
       </c>
       <c r="D14">
-        <v>12.73713370381148</v>
+        <v>11.91785801085711</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.58554421486872</v>
+        <v>30.17989827508442</v>
       </c>
       <c r="G14">
-        <v>22.68322926880466</v>
+        <v>28.44478349734462</v>
       </c>
       <c r="H14">
-        <v>8.386000076792627</v>
+        <v>14.15103609573509</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.627769731346547</v>
+        <v>11.46625685395354</v>
       </c>
       <c r="K14">
-        <v>14.49739987290756</v>
+        <v>9.984366634959992</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.10224991824889</v>
+        <v>17.9276102482406</v>
       </c>
       <c r="O14">
-        <v>13.96035229895694</v>
+        <v>21.5108336550611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.69716407036639</v>
+        <v>11.0689284370585</v>
       </c>
       <c r="C15">
-        <v>8.590982859166713</v>
+        <v>5.822345389270078</v>
       </c>
       <c r="D15">
-        <v>12.67456531628251</v>
+        <v>11.90270159436553</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.51855873865097</v>
+        <v>30.17770306299807</v>
       </c>
       <c r="G15">
-        <v>22.62388492000559</v>
+        <v>28.44625284952442</v>
       </c>
       <c r="H15">
-        <v>8.388767011797956</v>
+        <v>14.15520756388742</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.591183888703426</v>
+        <v>11.46161874045934</v>
       </c>
       <c r="K15">
-        <v>14.42629595044572</v>
+        <v>9.958555737669597</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.12301548430798</v>
+        <v>17.9334175778422</v>
       </c>
       <c r="O15">
-        <v>13.95062010189493</v>
+        <v>21.51664570048806</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.1729084986015</v>
+        <v>10.86244935204639</v>
       </c>
       <c r="C16">
-        <v>8.382445587789981</v>
+        <v>5.722928640245168</v>
       </c>
       <c r="D16">
-        <v>12.31173908357811</v>
+        <v>11.81613734706792</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.13829805390388</v>
+        <v>30.16730102969312</v>
       </c>
       <c r="G16">
-        <v>22.29080818944025</v>
+        <v>28.45730054239515</v>
       </c>
       <c r="H16">
-        <v>8.406640538239586</v>
+        <v>14.17974138011201</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.380830647637932</v>
+        <v>11.43566640810265</v>
       </c>
       <c r="K16">
-        <v>14.01219508908693</v>
+        <v>9.809583965404709</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.24268802214292</v>
+        <v>17.967166874729</v>
       </c>
       <c r="O16">
-        <v>13.89940339751882</v>
+        <v>21.55126241333003</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.8432414764122</v>
+        <v>10.73408770616477</v>
       </c>
       <c r="C17">
-        <v>8.251979497044523</v>
+        <v>5.660904108307789</v>
       </c>
       <c r="D17">
-        <v>12.08538227659726</v>
+        <v>11.76331652898298</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.90829741519349</v>
+        <v>30.1628653570985</v>
       </c>
       <c r="G17">
-        <v>22.09272746920809</v>
+        <v>28.46642001093963</v>
       </c>
       <c r="H17">
-        <v>8.41936025021351</v>
+        <v>14.19535317186233</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.25120956492152</v>
+        <v>11.42030961593495</v>
       </c>
       <c r="K17">
-        <v>13.75223650655444</v>
+        <v>9.717293118851318</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.31671520778447</v>
+        <v>17.98829098331115</v>
       </c>
       <c r="O17">
-        <v>13.87196383601493</v>
+        <v>21.57366652151861</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.65065394402639</v>
+        <v>10.65965988502258</v>
       </c>
       <c r="C18">
-        <v>8.176015580096383</v>
+        <v>5.624856688301745</v>
       </c>
       <c r="D18">
-        <v>11.95381736065692</v>
+        <v>11.73304904257687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.7772352862909</v>
+        <v>30.16102989603034</v>
       </c>
       <c r="G18">
-        <v>21.98109389228911</v>
+        <v>28.47252489749154</v>
       </c>
       <c r="H18">
-        <v>8.42730354266709</v>
+        <v>14.20453885398855</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.176461641203684</v>
+        <v>11.41168596054469</v>
       </c>
       <c r="K18">
-        <v>13.60053911530408</v>
+        <v>9.663896650316598</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.35952291377201</v>
+        <v>18.00059566718415</v>
       </c>
       <c r="O18">
-        <v>13.85761039148096</v>
+        <v>21.5869814503302</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.5849355749731</v>
+        <v>10.63435970291523</v>
       </c>
       <c r="C19">
-        <v>8.150137804279632</v>
+        <v>5.612588456723613</v>
       </c>
       <c r="D19">
-        <v>11.90903812972264</v>
+        <v>11.72282140700793</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.7330731275096</v>
+        <v>30.1605314493012</v>
       </c>
       <c r="G19">
-        <v>21.94369108858898</v>
+        <v>28.47473943068306</v>
       </c>
       <c r="H19">
-        <v>8.430099085601842</v>
+        <v>14.20768438130625</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.15112193523151</v>
+        <v>11.40880223416019</v>
       </c>
       <c r="K19">
-        <v>13.54880331161105</v>
+        <v>9.64576549081267</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.37405664552225</v>
+        <v>18.00478841289025</v>
       </c>
       <c r="O19">
-        <v>13.85299277830949</v>
+        <v>21.59156323288267</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.87864239030687</v>
+        <v>10.74781444506845</v>
       </c>
       <c r="C20">
-        <v>8.265963593161407</v>
+        <v>5.667545469247486</v>
       </c>
       <c r="D20">
-        <v>12.10962059168976</v>
+        <v>11.7689278457512</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.93265480959948</v>
+        <v>30.16326347361299</v>
       </c>
       <c r="G20">
-        <v>22.11357572281308</v>
+        <v>28.465360234911</v>
       </c>
       <c r="H20">
-        <v>8.417940903230528</v>
+        <v>14.19366992969199</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.265028391473304</v>
+        <v>11.42192276577447</v>
       </c>
       <c r="K20">
-        <v>13.78013477026926</v>
+        <v>9.727150469453449</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.30881126061709</v>
+        <v>17.98602628651432</v>
       </c>
       <c r="O20">
-        <v>13.87473615637245</v>
+        <v>21.57123718763543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.83003706077264</v>
+        <v>11.1216943974336</v>
       </c>
       <c r="C21">
-        <v>8.644033089248586</v>
+        <v>5.84768641001277</v>
       </c>
       <c r="D21">
-        <v>12.76706090463921</v>
+        <v>11.92513073773291</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.61772853948121</v>
+        <v>30.18098942735272</v>
       </c>
       <c r="G21">
-        <v>22.71181026975968</v>
+        <v>28.44412541069006</v>
       </c>
       <c r="H21">
-        <v>8.384709586008894</v>
+        <v>14.14904688696165</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.645300772852853</v>
+        <v>11.46849197436294</v>
       </c>
       <c r="K21">
-        <v>14.53137885992587</v>
+        <v>9.996724303654904</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.09230402257004</v>
+        <v>17.92483377630088</v>
       </c>
       <c r="O21">
-        <v>13.9651008871975</v>
+        <v>21.50806981582542</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.4256312315112</v>
+        <v>11.36021866568934</v>
       </c>
       <c r="C22">
-        <v>8.882738115266459</v>
+        <v>5.961937254117974</v>
       </c>
       <c r="D22">
-        <v>13.18421375755288</v>
+        <v>12.02802973615067</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.07590188894815</v>
+        <v>30.19892935860441</v>
       </c>
       <c r="G22">
-        <v>23.12322348105488</v>
+        <v>28.43792264878137</v>
       </c>
       <c r="H22">
-        <v>8.368957135493531</v>
+        <v>14.1217194077442</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.891740607157047</v>
+        <v>11.50074990163035</v>
       </c>
       <c r="K22">
-        <v>15.00300063076516</v>
+        <v>10.16974318234619</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.9527526196449</v>
+        <v>17.88621169991152</v>
       </c>
       <c r="O22">
-        <v>14.03759222420831</v>
+        <v>21.47061430000605</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.11013510932076</v>
+        <v>11.23347000412619</v>
       </c>
       <c r="C23">
-        <v>8.756110706320477</v>
+        <v>5.901285443939882</v>
       </c>
       <c r="D23">
-        <v>12.96272974223723</v>
+        <v>11.9730460618084</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.83043434846491</v>
+        <v>30.18877411189305</v>
       </c>
       <c r="G23">
-        <v>22.90177796547428</v>
+        <v>28.44053008219774</v>
       </c>
       <c r="H23">
-        <v>8.376799755973552</v>
+        <v>14.13613657274845</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.760418245677238</v>
+        <v>11.48336853487243</v>
       </c>
       <c r="K23">
-        <v>14.75305647079888</v>
+        <v>10.07770646975634</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.02706006456514</v>
+        <v>17.90669991190264</v>
       </c>
       <c r="O23">
-        <v>13.99763956999009</v>
+        <v>21.4902542496281</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8626471636716</v>
+        <v>10.74161054599769</v>
       </c>
       <c r="C24">
-        <v>8.259644362864508</v>
+        <v>5.664544118780404</v>
       </c>
       <c r="D24">
-        <v>12.09866689768458</v>
+        <v>11.76639065600783</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.92163918694236</v>
+        <v>30.16308125880833</v>
       </c>
       <c r="G24">
-        <v>22.10414323258855</v>
+        <v>28.46583667489129</v>
       </c>
       <c r="H24">
-        <v>8.418580630110144</v>
+        <v>14.19443026854094</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.258781602810654</v>
+        <v>11.42119282121959</v>
       </c>
       <c r="K24">
-        <v>13.76752895401952</v>
+        <v>9.722695007370426</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.31238386011685</v>
+        <v>17.98704965699214</v>
       </c>
       <c r="O24">
-        <v>13.87347836929468</v>
+        <v>21.57233413613068</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.40327611026693</v>
+        <v>10.18859163501399</v>
       </c>
       <c r="C25">
-        <v>7.688988573062278</v>
+        <v>5.3950600810967</v>
       </c>
       <c r="D25">
-        <v>11.11458669959187</v>
+        <v>11.54794181178317</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.98861957176041</v>
+        <v>30.16273654734013</v>
       </c>
       <c r="G25">
-        <v>21.33147815602049</v>
+        <v>28.52597574035825</v>
       </c>
       <c r="H25">
-        <v>8.487424290729153</v>
+        <v>14.2651926332909</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.71060437937226</v>
+        <v>11.36214242877452</v>
       </c>
       <c r="K25">
-        <v>12.6213400463973</v>
+        <v>9.328044278247646</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.6289690805135</v>
+        <v>18.07963680428454</v>
       </c>
       <c r="O25">
-        <v>13.7937360021471</v>
+        <v>21.67725271748463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.765230857032034</v>
+        <v>13.22944670555926</v>
       </c>
       <c r="C2">
-        <v>5.18551004227746</v>
+        <v>7.239831645454581</v>
       </c>
       <c r="D2">
-        <v>11.39196860958976</v>
+        <v>10.34787328810851</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.18605307898979</v>
+        <v>21.34481896984211</v>
       </c>
       <c r="G2">
-        <v>28.59831812537493</v>
+        <v>20.83710272351917</v>
       </c>
       <c r="H2">
-        <v>14.32408158459642</v>
+        <v>8.556635780438306</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.32573392360043</v>
+        <v>8.303359000925303</v>
       </c>
       <c r="K2">
-        <v>9.029596513322192</v>
+        <v>11.70612518203962</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.15294547877399</v>
+        <v>11.87018882343125</v>
       </c>
       <c r="O2">
-        <v>21.76853910501546</v>
+        <v>13.77758783226358</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.470098101814735</v>
+        <v>12.37134630502073</v>
       </c>
       <c r="C3">
-        <v>5.037162195676551</v>
+        <v>6.918244581040535</v>
       </c>
       <c r="D3">
-        <v>11.2898146937132</v>
+        <v>9.803970741795245</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.21654883037102</v>
+        <v>20.93662650635627</v>
       </c>
       <c r="G3">
-        <v>28.66472995889168</v>
+        <v>20.547549412328</v>
       </c>
       <c r="H3">
-        <v>14.36822844670816</v>
+        <v>8.614186006030243</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.30554609477024</v>
+        <v>8.026640219891688</v>
       </c>
       <c r="K3">
-        <v>8.823674048157752</v>
+        <v>11.04183692729835</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.20585639177958</v>
+        <v>12.03899126583804</v>
       </c>
       <c r="O3">
-        <v>21.83913064611015</v>
+        <v>13.7910922900106</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.285545922592584</v>
+        <v>11.81342400107329</v>
       </c>
       <c r="C4">
-        <v>4.943186811864701</v>
+        <v>6.71270471522045</v>
       </c>
       <c r="D4">
-        <v>11.22901021329722</v>
+        <v>9.458939150150613</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.24251154350371</v>
+        <v>20.70019374352785</v>
       </c>
       <c r="G4">
-        <v>28.71403478407855</v>
+        <v>20.39167475484476</v>
       </c>
       <c r="H4">
-        <v>14.39742602637774</v>
+        <v>8.65448778192045</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.29538569247988</v>
+        <v>7.856970829586921</v>
       </c>
       <c r="K4">
-        <v>8.695884984549183</v>
+        <v>10.61250469099963</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.23994455269195</v>
+        <v>12.14534664089405</v>
       </c>
       <c r="O4">
-        <v>21.88676798997393</v>
+        <v>13.81073028474444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.209616781873354</v>
+        <v>11.57823986672113</v>
       </c>
       <c r="C5">
-        <v>4.904203620384155</v>
+        <v>6.626984445959747</v>
       </c>
       <c r="D5">
-        <v>11.20473905843179</v>
+        <v>9.315719757020076</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.25490982373212</v>
+        <v>20.60745685158214</v>
       </c>
       <c r="G5">
-        <v>28.73626367743816</v>
+        <v>20.33356569558166</v>
       </c>
       <c r="H5">
-        <v>14.4098502755219</v>
+        <v>8.672119124055657</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.2918103456803</v>
+        <v>7.78798644276177</v>
       </c>
       <c r="K5">
-        <v>8.64354229096744</v>
+        <v>10.43221031019997</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.25423933352483</v>
+        <v>12.18938038128673</v>
       </c>
       <c r="O5">
-        <v>21.90725874315453</v>
+        <v>13.82147945677719</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.19696874477135</v>
+        <v>11.53871456162458</v>
       </c>
       <c r="C6">
-        <v>4.897690174316355</v>
+        <v>6.612634543252945</v>
       </c>
       <c r="D6">
-        <v>11.20074018774566</v>
+        <v>9.29178579508668</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.25707829843605</v>
+        <v>20.5922770252445</v>
       </c>
       <c r="G6">
-        <v>28.74008358740473</v>
+        <v>20.32424022637847</v>
       </c>
       <c r="H6">
-        <v>14.41194508589565</v>
+        <v>8.675118602672528</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.29125087408824</v>
+        <v>7.776544104692928</v>
       </c>
       <c r="K6">
-        <v>8.634836833086347</v>
+        <v>10.40195218271503</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.25663737808246</v>
+        <v>12.19673434501054</v>
       </c>
       <c r="O6">
-        <v>21.91072628756793</v>
+        <v>13.82342711100504</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.284524680738611</v>
+        <v>11.81028393629362</v>
       </c>
       <c r="C7">
-        <v>4.942663800457649</v>
+        <v>6.711556498728724</v>
       </c>
       <c r="D7">
-        <v>11.22868079852859</v>
+        <v>9.457017991426913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.2426713919836</v>
+        <v>20.6989283942325</v>
       </c>
       <c r="G7">
-        <v>28.71432592959226</v>
+        <v>20.39086931318512</v>
       </c>
       <c r="H7">
-        <v>14.39759145421198</v>
+        <v>8.654720725463214</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.29533518228872</v>
+        <v>7.856039711836742</v>
       </c>
       <c r="K7">
-        <v>8.695180058563343</v>
+        <v>10.61009470293885</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.2401357015928</v>
+        <v>12.14593767391068</v>
       </c>
       <c r="O7">
-        <v>21.88703997218229</v>
+        <v>13.81086427224334</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.664229867538586</v>
+        <v>12.94000362654383</v>
       </c>
       <c r="C8">
-        <v>5.134981800185541</v>
+        <v>7.130665721877905</v>
       </c>
       <c r="D8">
-        <v>11.35636290415209</v>
+        <v>10.16272560405118</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.19506484424032</v>
+        <v>21.20115537695544</v>
       </c>
       <c r="G8">
-        <v>28.61944267916476</v>
+        <v>20.73266422897559</v>
       </c>
       <c r="H8">
-        <v>14.33886947457652</v>
+        <v>8.575423495294924</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.31831127037747</v>
+        <v>8.207953784541132</v>
       </c>
       <c r="K8">
-        <v>8.95891748320577</v>
+        <v>11.4815612006836</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.17085760101472</v>
+        <v>11.92783652795734</v>
       </c>
       <c r="O8">
-        <v>21.79198694917003</v>
+        <v>13.77982531178691</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.3776177094225</v>
+        <v>14.91020032236276</v>
       </c>
       <c r="C9">
-        <v>5.487638895995342</v>
+        <v>7.885815283967398</v>
       </c>
       <c r="D9">
-        <v>11.62083924331764</v>
+        <v>11.45283450200978</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.15919188740271</v>
+        <v>22.29636999183961</v>
       </c>
       <c r="G9">
-        <v>28.50134463619338</v>
+        <v>21.58008383348576</v>
       </c>
       <c r="H9">
-        <v>14.24030240013159</v>
+        <v>8.461231700001823</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.38094648151009</v>
+        <v>8.896005496156532</v>
       </c>
       <c r="K9">
-        <v>9.462361511473166</v>
+        <v>13.0185402869646</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.04765388711198</v>
+        <v>11.52110082202704</v>
       </c>
       <c r="O9">
-        <v>21.63972672593855</v>
+        <v>13.81370990636043</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.87701351105921</v>
+        <v>16.21012399238991</v>
       </c>
       <c r="C10">
-        <v>5.729954998153561</v>
+        <v>8.397206935812825</v>
       </c>
       <c r="D10">
-        <v>11.82217928560256</v>
+        <v>12.33738099747418</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.16790411191591</v>
+        <v>23.16470740628868</v>
       </c>
       <c r="G10">
-        <v>28.45637651045088</v>
+        <v>22.31372190378683</v>
       </c>
       <c r="H10">
-        <v>14.17798790622829</v>
+        <v>8.405275396239494</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.43744693494919</v>
+        <v>9.39559374978006</v>
       </c>
       <c r="K10">
-        <v>9.820071226107281</v>
+        <v>14.04156328590966</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.96477740118998</v>
+        <v>11.23427175311663</v>
       </c>
       <c r="O10">
-        <v>21.54876407339742</v>
+        <v>13.90273053523427</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.09779965651921</v>
+        <v>16.76991919634773</v>
       </c>
       <c r="C11">
-        <v>5.836214020817639</v>
+        <v>8.620021205708152</v>
       </c>
       <c r="D11">
-        <v>11.91495858041497</v>
+        <v>12.72518533950201</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.17947006259054</v>
+        <v>23.57272074989832</v>
       </c>
       <c r="G11">
-        <v>28.44505430868577</v>
+        <v>22.67185373339139</v>
       </c>
       <c r="H11">
-        <v>14.15183137466589</v>
+        <v>8.386521264710812</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.46536749270732</v>
+        <v>9.620776201525356</v>
       </c>
       <c r="K11">
-        <v>9.97943502425394</v>
+        <v>14.48382828406118</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.92871897134518</v>
+        <v>11.10621835479523</v>
       </c>
       <c r="O11">
-        <v>21.5119400222062</v>
+        <v>13.9584733472462</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.18041180792491</v>
+        <v>16.97740365688096</v>
       </c>
       <c r="C12">
-        <v>5.875856323802648</v>
+        <v>8.702958794325458</v>
       </c>
       <c r="D12">
-        <v>11.95023361922685</v>
+        <v>12.86989220790902</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.18494044132041</v>
+        <v>23.72902266688747</v>
       </c>
       <c r="G12">
-        <v>28.44208352493991</v>
+        <v>22.81097717224581</v>
       </c>
       <c r="H12">
-        <v>14.14224149591584</v>
+        <v>8.380438376214737</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.47625354739341</v>
+        <v>9.705692599921859</v>
       </c>
       <c r="K12">
-        <v>10.03924386626023</v>
+        <v>14.64798214410297</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.91529967269123</v>
+        <v>11.05806272381474</v>
       </c>
       <c r="O12">
-        <v>21.49865218271109</v>
+        <v>13.98187861901575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.16266516664246</v>
+        <v>16.93291756887462</v>
       </c>
       <c r="C13">
-        <v>5.867345500834233</v>
+        <v>8.685160960296784</v>
       </c>
       <c r="D13">
-        <v>11.94263068152702</v>
+        <v>12.83882307607556</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.18371384452564</v>
+        <v>23.69528150303473</v>
       </c>
       <c r="G13">
-        <v>28.44266473602142</v>
+        <v>22.7808586228117</v>
       </c>
       <c r="H13">
-        <v>14.14429283641077</v>
+        <v>8.381702214735117</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.47389521077466</v>
+        <v>9.687420923595988</v>
       </c>
       <c r="K13">
-        <v>10.02638776457135</v>
+        <v>14.61277634008135</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.91817931099905</v>
+        <v>11.0684192010305</v>
       </c>
       <c r="O13">
-        <v>21.50148472863576</v>
+        <v>13.97673410535612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.10461654994769</v>
+        <v>16.78707898176525</v>
       </c>
       <c r="C14">
-        <v>5.839487486624163</v>
+        <v>8.626873459101178</v>
       </c>
       <c r="D14">
-        <v>11.91785801085711</v>
+        <v>12.7371337038115</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.17989827508442</v>
+        <v>23.58554421486863</v>
       </c>
       <c r="G14">
-        <v>28.44478349734462</v>
+        <v>22.68322926880451</v>
       </c>
       <c r="H14">
-        <v>14.15103609573509</v>
+        <v>8.386000076792582</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.46625685395354</v>
+        <v>9.627769731346575</v>
       </c>
       <c r="K14">
-        <v>9.984366634959992</v>
+        <v>14.4973998729076</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.9276102482406</v>
+        <v>11.10224991824883</v>
       </c>
       <c r="O14">
-        <v>21.5108336550611</v>
+        <v>13.96035229895684</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.0689284370585</v>
+        <v>16.69716407036632</v>
       </c>
       <c r="C15">
-        <v>5.822345389270078</v>
+        <v>8.590982859166816</v>
       </c>
       <c r="D15">
-        <v>11.90270159436553</v>
+        <v>12.67456531628253</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.17770306299807</v>
+        <v>23.518558738651</v>
       </c>
       <c r="G15">
-        <v>28.44625284952442</v>
+        <v>22.62388492000557</v>
       </c>
       <c r="H15">
-        <v>14.15520756388742</v>
+        <v>8.388767011797999</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.46161874045934</v>
+        <v>9.591183888703407</v>
       </c>
       <c r="K15">
-        <v>9.958555737669597</v>
+        <v>14.42629595044572</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.9334175778422</v>
+        <v>11.12301548430802</v>
       </c>
       <c r="O15">
-        <v>21.51664570048806</v>
+        <v>13.95062010189496</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.86244935204639</v>
+        <v>16.17290849860144</v>
       </c>
       <c r="C16">
-        <v>5.722928640245168</v>
+        <v>8.38244558779016</v>
       </c>
       <c r="D16">
-        <v>11.81613734706792</v>
+        <v>12.31173908357809</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.16730102969312</v>
+        <v>23.13829805390393</v>
       </c>
       <c r="G16">
-        <v>28.45730054239515</v>
+        <v>22.29080818944034</v>
       </c>
       <c r="H16">
-        <v>14.17974138011201</v>
+        <v>8.406640538239643</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.43566640810265</v>
+        <v>9.380830647637946</v>
       </c>
       <c r="K16">
-        <v>9.809583965404709</v>
+        <v>14.01219508908693</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.967166874729</v>
+        <v>11.24268802214302</v>
       </c>
       <c r="O16">
-        <v>21.55126241333003</v>
+        <v>13.89940339751891</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.73408770616477</v>
+        <v>15.84324147641225</v>
       </c>
       <c r="C17">
-        <v>5.660904108307789</v>
+        <v>8.251979497044585</v>
       </c>
       <c r="D17">
-        <v>11.76331652898298</v>
+        <v>12.08538227659728</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.1628653570985</v>
+        <v>22.90829741519342</v>
       </c>
       <c r="G17">
-        <v>28.46642001093963</v>
+        <v>22.09272746920802</v>
       </c>
       <c r="H17">
-        <v>14.19535317186233</v>
+        <v>8.41936025021346</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.42030961593495</v>
+        <v>9.251209564921519</v>
       </c>
       <c r="K17">
-        <v>9.717293118851318</v>
+        <v>13.75223650655449</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.98829098331115</v>
+        <v>11.3167152077844</v>
       </c>
       <c r="O17">
-        <v>21.57366652151861</v>
+        <v>13.87196383601481</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.65965988502258</v>
+        <v>15.65065394402637</v>
       </c>
       <c r="C18">
-        <v>5.624856688301745</v>
+        <v>8.176015580096502</v>
       </c>
       <c r="D18">
-        <v>11.73304904257687</v>
+        <v>11.95381736065691</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.16102989603034</v>
+        <v>22.77723528629079</v>
       </c>
       <c r="G18">
-        <v>28.47252489749154</v>
+        <v>21.98109389228892</v>
       </c>
       <c r="H18">
-        <v>14.20453885398855</v>
+        <v>8.427303542667049</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.41168596054469</v>
+        <v>9.176461641203632</v>
       </c>
       <c r="K18">
-        <v>9.663896650316598</v>
+        <v>13.60053911530413</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.00059566718415</v>
+        <v>11.35952291377191</v>
       </c>
       <c r="O18">
-        <v>21.5869814503302</v>
+        <v>13.85761039148086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.63435970291523</v>
+        <v>15.58493557497309</v>
       </c>
       <c r="C19">
-        <v>5.612588456723613</v>
+        <v>8.150137804279826</v>
       </c>
       <c r="D19">
-        <v>11.72282140700793</v>
+        <v>11.90903812972265</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.1605314493012</v>
+        <v>22.73307312750955</v>
       </c>
       <c r="G19">
-        <v>28.47473943068306</v>
+        <v>21.94369108858887</v>
       </c>
       <c r="H19">
-        <v>14.20768438130625</v>
+        <v>8.430099085601842</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.40880223416019</v>
+        <v>9.151121935231487</v>
       </c>
       <c r="K19">
-        <v>9.64576549081267</v>
+        <v>13.54880331161107</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.00478841289025</v>
+        <v>11.37405664552225</v>
       </c>
       <c r="O19">
-        <v>21.59156323288267</v>
+        <v>13.85299277830947</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.74781444506845</v>
+        <v>15.87864239030688</v>
       </c>
       <c r="C20">
-        <v>5.667545469247486</v>
+        <v>8.265963593161562</v>
       </c>
       <c r="D20">
-        <v>11.7689278457512</v>
+        <v>12.10962059168977</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.16326347361299</v>
+        <v>22.93265480959935</v>
       </c>
       <c r="G20">
-        <v>28.465360234911</v>
+        <v>22.11357572281291</v>
       </c>
       <c r="H20">
-        <v>14.19366992969199</v>
+        <v>8.417940903230479</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.42192276577447</v>
+        <v>9.265028391473276</v>
       </c>
       <c r="K20">
-        <v>9.727150469453449</v>
+        <v>13.78013477026928</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.98602628651432</v>
+        <v>11.30881126061699</v>
       </c>
       <c r="O20">
-        <v>21.57123718763543</v>
+        <v>13.87473615637236</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.1216943974336</v>
+        <v>16.83003706077271</v>
       </c>
       <c r="C21">
-        <v>5.84768641001277</v>
+        <v>8.644033089248497</v>
       </c>
       <c r="D21">
-        <v>11.92513073773291</v>
+        <v>12.7670609046392</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.18098942735272</v>
+        <v>23.61772853948106</v>
       </c>
       <c r="G21">
-        <v>28.44412541069006</v>
+        <v>22.71181026975951</v>
       </c>
       <c r="H21">
-        <v>14.14904688696165</v>
+        <v>8.384709586008841</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.46849197436294</v>
+        <v>9.64530077285289</v>
       </c>
       <c r="K21">
-        <v>9.996724303654904</v>
+        <v>14.53137885992594</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.92483377630088</v>
+        <v>11.09230402257001</v>
       </c>
       <c r="O21">
-        <v>21.50806981582542</v>
+        <v>13.96510088719739</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.36021866568934</v>
+        <v>17.42563123151114</v>
       </c>
       <c r="C22">
-        <v>5.961937254117974</v>
+        <v>8.882738115266529</v>
       </c>
       <c r="D22">
-        <v>12.02802973615067</v>
+        <v>13.18421375755288</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.19892935860441</v>
+        <v>24.07590188894815</v>
       </c>
       <c r="G22">
-        <v>28.43792264878137</v>
+        <v>23.12322348105493</v>
       </c>
       <c r="H22">
-        <v>14.1217194077442</v>
+        <v>8.368957135493472</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.50074990163035</v>
+        <v>9.891740607157034</v>
       </c>
       <c r="K22">
-        <v>10.16974318234619</v>
+        <v>15.00300063076512</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.88621169991152</v>
+        <v>10.95275261964483</v>
       </c>
       <c r="O22">
-        <v>21.47061430000605</v>
+        <v>14.03759222420831</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.23347000412619</v>
+        <v>17.11013510932073</v>
       </c>
       <c r="C23">
-        <v>5.901285443939882</v>
+        <v>8.756110706320564</v>
       </c>
       <c r="D23">
-        <v>11.9730460618084</v>
+        <v>12.96272974223722</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.18877411189305</v>
+        <v>23.83043434846493</v>
       </c>
       <c r="G23">
-        <v>28.44053008219774</v>
+        <v>22.90177796547436</v>
       </c>
       <c r="H23">
-        <v>14.13613657274845</v>
+        <v>8.376799755973604</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.48336853487243</v>
+        <v>9.760418245677212</v>
       </c>
       <c r="K23">
-        <v>10.07770646975634</v>
+        <v>14.75305647079891</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.90669991190264</v>
+        <v>11.02706006456517</v>
       </c>
       <c r="O23">
-        <v>21.4902542496281</v>
+        <v>13.99763956999012</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.74161054599769</v>
+        <v>15.86264716367161</v>
       </c>
       <c r="C24">
-        <v>5.664544118780404</v>
+        <v>8.25964436286457</v>
       </c>
       <c r="D24">
-        <v>11.76639065600783</v>
+        <v>12.09866689768457</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.16308125880833</v>
+        <v>22.92163918694233</v>
       </c>
       <c r="G24">
-        <v>28.46583667489129</v>
+        <v>22.10414323258848</v>
       </c>
       <c r="H24">
-        <v>14.19443026854094</v>
+        <v>8.418580630110144</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.42119282121959</v>
+        <v>9.25878160281064</v>
       </c>
       <c r="K24">
-        <v>9.722695007370426</v>
+        <v>13.76752895401955</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.98704965699214</v>
+        <v>11.31238386011678</v>
       </c>
       <c r="O24">
-        <v>21.57233413613068</v>
+        <v>13.87347836929464</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.18859163501399</v>
+        <v>14.40327611026698</v>
       </c>
       <c r="C25">
-        <v>5.3950600810967</v>
+        <v>7.688988573062384</v>
       </c>
       <c r="D25">
-        <v>11.54794181178317</v>
+        <v>11.11458669959188</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.16273654734013</v>
+        <v>21.98861957176039</v>
       </c>
       <c r="G25">
-        <v>28.52597574035825</v>
+        <v>21.33147815602047</v>
       </c>
       <c r="H25">
-        <v>14.2651926332909</v>
+        <v>8.487424290729153</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.36214242877452</v>
+        <v>8.710604379372263</v>
       </c>
       <c r="K25">
-        <v>9.328044278247646</v>
+        <v>12.62134004639736</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.07963680428454</v>
+        <v>11.6289690805135</v>
       </c>
       <c r="O25">
-        <v>21.67725271748463</v>
+        <v>13.79373600214709</v>
       </c>
     </row>
   </sheetData>
